--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
@@ -540,16 +540,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H2">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J2">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.415887</v>
+        <v>0.2272265</v>
       </c>
       <c r="N2">
-        <v>0.831774</v>
+        <v>0.454453</v>
       </c>
       <c r="O2">
-        <v>0.1274765705819998</v>
+        <v>0.08704083604617911</v>
       </c>
       <c r="P2">
-        <v>0.1197424607254622</v>
+        <v>0.08229687998280369</v>
       </c>
       <c r="Q2">
-        <v>0.0820330869195</v>
+        <v>0.00664285311425</v>
       </c>
       <c r="R2">
-        <v>0.328132347678</v>
+        <v>0.026571412457</v>
       </c>
       <c r="S2">
-        <v>0.1074441450892688</v>
+        <v>0.03854834187579284</v>
       </c>
       <c r="T2">
-        <v>0.09357310261736772</v>
+        <v>0.02850652722331883</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H3">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J3">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.824174</v>
       </c>
       <c r="O3">
-        <v>0.08420786983230948</v>
+        <v>0.1052353694185077</v>
       </c>
       <c r="P3">
-        <v>0.1186483622064973</v>
+        <v>0.149249644656207</v>
       </c>
       <c r="Q3">
-        <v>0.054189028413</v>
+        <v>0.008031438267666667</v>
       </c>
       <c r="R3">
-        <v>0.325134170478</v>
+        <v>0.048188629606</v>
       </c>
       <c r="S3">
-        <v>0.07097494498489815</v>
+        <v>0.04660627335447184</v>
       </c>
       <c r="T3">
-        <v>0.09271811607067114</v>
+        <v>0.05169806023450516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H4">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J4">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.42513</v>
+        <v>2.082377</v>
       </c>
       <c r="N4">
-        <v>4.85026</v>
+        <v>4.164754</v>
       </c>
       <c r="O4">
-        <v>0.7433443594426494</v>
+        <v>0.7976703203338269</v>
       </c>
       <c r="P4">
-        <v>0.6982450371835141</v>
+        <v>0.7541951755096822</v>
       </c>
       <c r="Q4">
-        <v>0.478353254805</v>
+        <v>0.0608772504065</v>
       </c>
       <c r="R4">
-        <v>1.91341301922</v>
+        <v>0.243509001626</v>
       </c>
       <c r="S4">
-        <v>0.6265308114471922</v>
+        <v>0.3532694492512443</v>
       </c>
       <c r="T4">
-        <v>0.5456456642079627</v>
+        <v>0.2612430180446075</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H5">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I5">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J5">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.125357</v>
+        <v>0.02610733333333333</v>
       </c>
       <c r="N5">
-        <v>0.376071</v>
+        <v>0.078322</v>
       </c>
       <c r="O5">
-        <v>0.03842409226171471</v>
+        <v>0.0100006122537187</v>
       </c>
       <c r="P5">
-        <v>0.05413930580600655</v>
+        <v>0.01418332860386696</v>
       </c>
       <c r="Q5">
-        <v>0.0247264802145</v>
+        <v>0.0007632348363333333</v>
       </c>
       <c r="R5">
-        <v>0.148358881287</v>
+        <v>0.004579409018</v>
       </c>
       <c r="S5">
-        <v>0.03238590217043444</v>
+        <v>0.004429036273491936</v>
       </c>
       <c r="T5">
-        <v>0.04230732178983245</v>
+        <v>0.004912913381988407</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H6">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I6">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J6">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02135966666666667</v>
+        <v>0.000138</v>
       </c>
       <c r="N6">
-        <v>0.064079</v>
+        <v>0.000414</v>
       </c>
       <c r="O6">
-        <v>0.006547107881326709</v>
+        <v>5.286194776741585E-05</v>
       </c>
       <c r="P6">
-        <v>0.009224834078519996</v>
+        <v>7.49712474400669E-05</v>
       </c>
       <c r="Q6">
-        <v>0.0042131622105</v>
+        <v>4.034361E-06</v>
       </c>
       <c r="R6">
-        <v>0.025278973263</v>
+        <v>2.4206166E-05</v>
       </c>
       <c r="S6">
-        <v>0.005518256460028207</v>
+        <v>2.341131504846227E-05</v>
       </c>
       <c r="T6">
-        <v>0.007208774069180217</v>
+        <v>2.596902709510993E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.110328</v>
       </c>
       <c r="I7">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J7">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.415887</v>
+        <v>0.2272265</v>
       </c>
       <c r="N7">
-        <v>0.831774</v>
+        <v>0.454453</v>
       </c>
       <c r="O7">
-        <v>0.1274765705819998</v>
+        <v>0.08704083604617911</v>
       </c>
       <c r="P7">
-        <v>0.1197424607254622</v>
+        <v>0.08229687998280369</v>
       </c>
       <c r="Q7">
-        <v>0.015294660312</v>
+        <v>0.008356481763999999</v>
       </c>
       <c r="R7">
-        <v>0.091767961872</v>
+        <v>0.050138890584</v>
       </c>
       <c r="S7">
-        <v>0.02003242549273098</v>
+        <v>0.04849249417038626</v>
       </c>
       <c r="T7">
-        <v>0.02616935810809447</v>
+        <v>0.05379035275948486</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.110328</v>
       </c>
       <c r="I8">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J8">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.824174</v>
       </c>
       <c r="O8">
-        <v>0.08420786983230948</v>
+        <v>0.1052353694185077</v>
       </c>
       <c r="P8">
-        <v>0.1186483622064973</v>
+        <v>0.149249644656207</v>
       </c>
       <c r="Q8">
         <v>0.01010327434133333</v>
@@ -948,10 +948,10 @@
         <v>0.09092946907199999</v>
       </c>
       <c r="S8">
-        <v>0.01323292484741133</v>
+        <v>0.05862909606403585</v>
       </c>
       <c r="T8">
-        <v>0.02593024613582614</v>
+        <v>0.09755158442170185</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.110328</v>
       </c>
       <c r="I9">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J9">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.42513</v>
+        <v>2.082377</v>
       </c>
       <c r="N9">
-        <v>4.85026</v>
+        <v>4.164754</v>
       </c>
       <c r="O9">
-        <v>0.7433443594426494</v>
+        <v>0.7976703203338269</v>
       </c>
       <c r="P9">
-        <v>0.6982450371835141</v>
+        <v>0.7541951755096822</v>
       </c>
       <c r="Q9">
-        <v>0.08918658088</v>
+        <v>0.076581496552</v>
       </c>
       <c r="R9">
-        <v>0.53511948528</v>
+        <v>0.459488979312</v>
       </c>
       <c r="S9">
-        <v>0.1168135479954572</v>
+        <v>0.4444008710825825</v>
       </c>
       <c r="T9">
-        <v>0.1525993729755514</v>
+        <v>0.4929521574650747</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.110328</v>
       </c>
       <c r="I10">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J10">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.125357</v>
+        <v>0.02610733333333333</v>
       </c>
       <c r="N10">
-        <v>0.376071</v>
+        <v>0.078322</v>
       </c>
       <c r="O10">
-        <v>0.03842409226171471</v>
+        <v>0.0100006122537187</v>
       </c>
       <c r="P10">
-        <v>0.05413930580600655</v>
+        <v>0.01418332860386696</v>
       </c>
       <c r="Q10">
-        <v>0.004610129032</v>
+        <v>0.0009601232906666665</v>
       </c>
       <c r="R10">
-        <v>0.041491161288</v>
+        <v>0.008641109616</v>
       </c>
       <c r="S10">
-        <v>0.006038190091280272</v>
+        <v>0.005571575980226767</v>
       </c>
       <c r="T10">
-        <v>0.0118319840161741</v>
+        <v>0.009270415221878551</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.110328</v>
       </c>
       <c r="I11">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J11">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.02135966666666667</v>
+        <v>0.000138</v>
       </c>
       <c r="N11">
-        <v>0.064079</v>
+        <v>0.000414</v>
       </c>
       <c r="O11">
-        <v>0.006547107881326709</v>
+        <v>5.286194776741585E-05</v>
       </c>
       <c r="P11">
-        <v>0.009224834078519996</v>
+        <v>7.49712474400669E-05</v>
       </c>
       <c r="Q11">
-        <v>0.0007855231013333332</v>
+        <v>5.075088E-06</v>
       </c>
       <c r="R11">
-        <v>0.007069707912</v>
+        <v>4.5675792E-05</v>
       </c>
       <c r="S11">
-        <v>0.001028851421298501</v>
+        <v>2.945063271895358E-05</v>
       </c>
       <c r="T11">
-        <v>0.002016060009339779</v>
+        <v>4.900222034495696E-05</v>
       </c>
     </row>
   </sheetData>
